--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H2">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I2">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J2">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>2272.103665986313</v>
+        <v>1.3153329957635</v>
       </c>
       <c r="R2">
-        <v>13632.62199591788</v>
+        <v>5.261331983054</v>
       </c>
       <c r="S2">
-        <v>0.1215270591878249</v>
+        <v>5.072334717529935E-05</v>
       </c>
       <c r="T2">
-        <v>0.09272636784524685</v>
+        <v>2.548796710216215E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H3">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I3">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J3">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>3375.231519375807</v>
+        <v>3.350465796444667</v>
       </c>
       <c r="R3">
-        <v>30377.08367438227</v>
+        <v>20.102794778668</v>
       </c>
       <c r="S3">
-        <v>0.1805295976448053</v>
+        <v>0.0001292044222561155</v>
       </c>
       <c r="T3">
-        <v>0.2066188467412987</v>
+        <v>9.738586609446201E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H4">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I4">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J4">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>328.0636939996194</v>
+        <v>0.435683260341</v>
       </c>
       <c r="R4">
-        <v>2952.573245996575</v>
+        <v>2.614099562046</v>
       </c>
       <c r="S4">
-        <v>0.01754700569120441</v>
+        <v>1.680130685075309E-05</v>
       </c>
       <c r="T4">
-        <v>0.02008281260789696</v>
+        <v>1.266372923316842E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H5">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I5">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J5">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>944.075442012669</v>
+        <v>0.9210562574324999</v>
       </c>
       <c r="R5">
-        <v>5664.452652076015</v>
+        <v>3.684225029729999</v>
       </c>
       <c r="S5">
-        <v>0.05049536860345737</v>
+        <v>3.55188050966607E-05</v>
       </c>
       <c r="T5">
-        <v>0.03852847386333037</v>
+        <v>1.784783903718109E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H6">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I6">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J6">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>1118.474101969787</v>
+        <v>0.08844768489200001</v>
       </c>
       <c r="R6">
-        <v>10066.26691772808</v>
+        <v>0.5306861093520001</v>
       </c>
       <c r="S6">
-        <v>0.05982335684103882</v>
+        <v>3.410818889268596E-06</v>
       </c>
       <c r="T6">
-        <v>0.06846873399124477</v>
+        <v>2.570852806913511E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H7">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I7">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J7">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>452.4354349060033</v>
+        <v>0.346473961176</v>
       </c>
       <c r="R7">
-        <v>4071.91891415403</v>
+        <v>2.078843767056</v>
       </c>
       <c r="S7">
-        <v>0.0241992250175888</v>
+        <v>1.336111773713259E-05</v>
       </c>
       <c r="T7">
-        <v>0.02769637793690199</v>
+        <v>1.007073906682127E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H8">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I8">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J8">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>13.80782186269466</v>
+        <v>2309.799166954167</v>
       </c>
       <c r="R8">
-        <v>82.84693117616798</v>
+        <v>13858.795001725</v>
       </c>
       <c r="S8">
-        <v>0.0007385331971788413</v>
+        <v>0.08907306775393874</v>
       </c>
       <c r="T8">
-        <v>0.0005635082537600992</v>
+        <v>0.06713746865190937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H9">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I9">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J9">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
-        <v>20.51165017801355</v>
+        <v>5883.607520272223</v>
       </c>
       <c r="R9">
-        <v>184.604851602122</v>
+        <v>52952.46768245001</v>
       </c>
       <c r="S9">
-        <v>0.001097098060506553</v>
+        <v>0.2268902763446145</v>
       </c>
       <c r="T9">
-        <v>0.001255645273579893</v>
+        <v>0.2565226369701861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H10">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I10">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J10">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>1.993678859893889</v>
+        <v>765.0844577250001</v>
       </c>
       <c r="R10">
-        <v>17.943109739045</v>
+        <v>6885.760119525001</v>
       </c>
       <c r="S10">
-        <v>0.0001066350679482155</v>
+        <v>0.02950404550984786</v>
       </c>
       <c r="T10">
-        <v>0.0001220454432352428</v>
+        <v>0.03335733764094469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H11">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I11">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J11">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>5.737249458904833</v>
+        <v>1617.4269048125</v>
       </c>
       <c r="R11">
-        <v>34.423496753429</v>
+        <v>9704.561428875</v>
       </c>
       <c r="S11">
-        <v>0.0003068658640031631</v>
+        <v>0.06237303153476546</v>
       </c>
       <c r="T11">
-        <v>0.0002341417390898034</v>
+        <v>0.04701272286880116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H12">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I12">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J12">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>6.797089142203444</v>
+        <v>155.3191393666667</v>
       </c>
       <c r="R12">
-        <v>61.173802279831</v>
+        <v>1397.8722543</v>
       </c>
       <c r="S12">
-        <v>0.0003635530661981935</v>
+        <v>0.005989590966271691</v>
       </c>
       <c r="T12">
-        <v>0.0004160919663429785</v>
+        <v>0.006771844495914596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H13">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I13">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J13">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>2.749499498228667</v>
+        <v>608.4278806000001</v>
       </c>
       <c r="R13">
-        <v>24.745495484058</v>
+        <v>5475.8509254</v>
       </c>
       <c r="S13">
-        <v>0.000147061330545885</v>
+        <v>0.02346287876773857</v>
       </c>
       <c r="T13">
-        <v>0.0001683139103728347</v>
+        <v>0.02652718146136169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H14">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I14">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J14">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N14">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O14">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P14">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q14">
-        <v>2717.381905405017</v>
+        <v>1940.698641312314</v>
       </c>
       <c r="R14">
-        <v>16304.2914324301</v>
+        <v>11644.19184787389</v>
       </c>
       <c r="S14">
-        <v>0.145343470281637</v>
+        <v>0.07483939904417618</v>
       </c>
       <c r="T14">
-        <v>0.1108985289309952</v>
+        <v>0.05640905757435231</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H15">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I15">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J15">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P15">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q15">
-        <v>4036.696562136419</v>
+        <v>4943.420745823566</v>
       </c>
       <c r="R15">
-        <v>36330.26905922777</v>
+        <v>44490.7867124121</v>
       </c>
       <c r="S15">
-        <v>0.2159091019366355</v>
+        <v>0.1906337387806782</v>
       </c>
       <c r="T15">
-        <v>0.2471112228969221</v>
+        <v>0.2155309172140552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H16">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I16">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J16">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N16">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O16">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P16">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q16">
-        <v>392.3563696676262</v>
+        <v>642.825743830368</v>
       </c>
       <c r="R16">
-        <v>3531.207327008636</v>
+        <v>5785.431694473312</v>
       </c>
       <c r="S16">
-        <v>0.02098580116441085</v>
+        <v>0.02478936777420468</v>
       </c>
       <c r="T16">
-        <v>0.02401856588116948</v>
+        <v>0.0280269127999309</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H17">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I17">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J17">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N17">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O17">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P17">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q17">
-        <v>1129.091758385431</v>
+        <v>1358.96585361176</v>
       </c>
       <c r="R17">
-        <v>6774.550550312588</v>
+        <v>8153.795121670559</v>
       </c>
       <c r="S17">
-        <v>0.06039125899223748</v>
+        <v>0.05240596640861608</v>
       </c>
       <c r="T17">
-        <v>0.0460791377111905</v>
+        <v>0.03950019928190805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H18">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I18">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J18">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N18">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O18">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P18">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q18">
-        <v>1337.668404772133</v>
+        <v>130.4995027494827</v>
       </c>
       <c r="R18">
-        <v>12039.01564294919</v>
+        <v>1174.495524745344</v>
       </c>
       <c r="S18">
-        <v>0.07154731090575409</v>
+        <v>0.005032468284066464</v>
       </c>
       <c r="T18">
-        <v>0.08188697620582898</v>
+        <v>0.005689719522121772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.34823466666666</v>
+      </c>
+      <c r="H19">
+        <v>115.044704</v>
+      </c>
+      <c r="I19">
+        <v>0.3674145056948628</v>
+      </c>
+      <c r="J19">
+        <v>0.367445006057708</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.330536</v>
+      </c>
+      <c r="N19">
+        <v>39.991608</v>
+      </c>
+      <c r="O19">
+        <v>0.05365483696904789</v>
+      </c>
+      <c r="P19">
+        <v>0.06065723930900103</v>
+      </c>
+      <c r="Q19">
+        <v>511.2025227604479</v>
+      </c>
+      <c r="R19">
+        <v>4600.822704844032</v>
+      </c>
+      <c r="S19">
+        <v>0.01971356540312118</v>
+      </c>
+      <c r="T19">
+        <v>0.02228819966533973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H20">
+        <v>61.07198</v>
+      </c>
+      <c r="I20">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J20">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.6072485</v>
+      </c>
+      <c r="N20">
+        <v>101.214497</v>
+      </c>
+      <c r="O20">
+        <v>0.2036920096625967</v>
+      </c>
+      <c r="P20">
+        <v>0.1535170070198019</v>
+      </c>
+      <c r="Q20">
+        <v>1030.228289415676</v>
+      </c>
+      <c r="R20">
+        <v>6181.369736494059</v>
+      </c>
+      <c r="S20">
+        <v>0.03972881951730648</v>
+      </c>
+      <c r="T20">
+        <v>0.02994499282643809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H21">
+        <v>61.07198</v>
+      </c>
+      <c r="I21">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J21">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N21">
+        <v>386.726074</v>
+      </c>
+      <c r="O21">
+        <v>0.5188519664463093</v>
+      </c>
+      <c r="P21">
+        <v>0.5865664620849566</v>
+      </c>
+      <c r="Q21">
+        <v>2624.236339645169</v>
+      </c>
+      <c r="R21">
+        <v>23618.12705680652</v>
+      </c>
+      <c r="S21">
+        <v>0.1011987468987604</v>
+      </c>
+      <c r="T21">
+        <v>0.1144155220346209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H22">
+        <v>61.07198</v>
+      </c>
+      <c r="I22">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J22">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.762851</v>
+      </c>
+      <c r="N22">
+        <v>50.288553</v>
+      </c>
+      <c r="O22">
+        <v>0.06746975797083039</v>
+      </c>
+      <c r="P22">
+        <v>0.07627512236628199</v>
+      </c>
+      <c r="Q22">
+        <v>341.24683367166</v>
+      </c>
+      <c r="R22">
+        <v>3071.22150304494</v>
+      </c>
+      <c r="S22">
+        <v>0.0131595433799271</v>
+      </c>
+      <c r="T22">
+        <v>0.01487820819617324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H23">
+        <v>61.07198</v>
+      </c>
+      <c r="I23">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J23">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.4375075</v>
+      </c>
+      <c r="N23">
+        <v>70.87501499999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1426344512705199</v>
+      </c>
+      <c r="P23">
+        <v>0.1074996220678108</v>
+      </c>
+      <c r="Q23">
+        <v>721.4129164299499</v>
+      </c>
+      <c r="R23">
+        <v>4328.477498579699</v>
+      </c>
+      <c r="S23">
+        <v>0.02781993452204173</v>
+      </c>
+      <c r="T23">
+        <v>0.02096885207806439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>31.31438633333333</v>
-      </c>
-      <c r="H19">
-        <v>93.94315900000001</v>
-      </c>
-      <c r="I19">
-        <v>0.5431186404276995</v>
-      </c>
-      <c r="J19">
-        <v>0.5431186404276995</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>17.279662</v>
-      </c>
-      <c r="N19">
-        <v>51.83898600000001</v>
-      </c>
-      <c r="O19">
-        <v>0.05328798349515928</v>
-      </c>
-      <c r="P19">
-        <v>0.06098890064886813</v>
-      </c>
-      <c r="Q19">
-        <v>541.1020115774194</v>
-      </c>
-      <c r="R19">
-        <v>4869.918104196775</v>
-      </c>
-      <c r="S19">
-        <v>0.0289416971470246</v>
-      </c>
-      <c r="T19">
-        <v>0.0331242088015933</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H24">
+        <v>61.07198</v>
+      </c>
+      <c r="I24">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J24">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.403012</v>
+      </c>
+      <c r="N24">
+        <v>10.209036</v>
+      </c>
+      <c r="O24">
+        <v>0.01369697768069593</v>
+      </c>
+      <c r="P24">
+        <v>0.01548454715214769</v>
+      </c>
+      <c r="Q24">
+        <v>69.27622693458667</v>
+      </c>
+      <c r="R24">
+        <v>623.48604241128</v>
+      </c>
+      <c r="S24">
+        <v>0.002671507611468507</v>
+      </c>
+      <c r="T24">
+        <v>0.003020412281304409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H25">
+        <v>61.07198</v>
+      </c>
+      <c r="I25">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J25">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.330536</v>
+      </c>
+      <c r="N25">
+        <v>39.991608</v>
+      </c>
+      <c r="O25">
+        <v>0.05365483696904789</v>
+      </c>
+      <c r="P25">
+        <v>0.06065723930900103</v>
+      </c>
+      <c r="Q25">
+        <v>271.37407599376</v>
+      </c>
+      <c r="R25">
+        <v>2442.36668394384</v>
+      </c>
+      <c r="S25">
+        <v>0.01046503168045101</v>
+      </c>
+      <c r="T25">
+        <v>0.0118317874432328</v>
       </c>
     </row>
   </sheetData>
